--- a/abdi/Parse-KL-BU.xlsx
+++ b/abdi/Parse-KL-BU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidar\Documents\GitHub\RCM_data_concatinating\abdi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس عبدی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8488D86-E204-46D1-9CD2-6F2A20C82FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="900" windowWidth="21840" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="0720BU01" sheetId="60" r:id="rId1"/>
@@ -1612,19 +1611,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1632,7 +1631,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -1640,7 +1639,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1867,11 +1866,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 12" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 12" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2157,33 +2156,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:K1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="C30:H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="19" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="18">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="22.5">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -16906,40 +16905,40 @@
       <c r="K1082" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K56" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:K56"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:K1224"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="18">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="22.5">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -34728,7 +34727,7 @@
       <c r="K1224" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K157" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:K157"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
